--- a/biology/Médecine/Congo,_un_médecin_pour_sauver_les_femmes/Congo,_un_médecin_pour_sauver_les_femmes.xlsx
+++ b/biology/Médecine/Congo,_un_médecin_pour_sauver_les_femmes/Congo,_un_médecin_pour_sauver_les_femmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Congo,_un_m%C3%A9decin_pour_sauver_les_femmes</t>
+          <t>Congo,_un_médecin_pour_sauver_les_femmes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Congo, un médecin pour sauver les femmes est un film documentaire franco-sénégalais produit par Roches Noires Productions et réalisé par Angèle Diabang[1], sorti en 2014.
-L'action du docteur Denis Mukwege, gynécologue et militant des droits de l'homme congolais, lauréat du Prix Sakharov 2014, qui procède à des opérations de chirurgie réparatrice sur des femmes violées, à l'hôpital de Panzi à Bukavu, en République démocratique du Congo, est l'objet d'un autre film, L'Homme qui répare les femmes : La Colère d'Hippocrate, documentaire belge réalisé par Thierry Michel et Colette Braeckman[2], dont la sortie est annoncée au printemps 2015.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Congo, un médecin pour sauver les femmes est un film documentaire franco-sénégalais produit par Roches Noires Productions et réalisé par Angèle Diabang, sorti en 2014.
+L'action du docteur Denis Mukwege, gynécologue et militant des droits de l'homme congolais, lauréat du Prix Sakharov 2014, qui procède à des opérations de chirurgie réparatrice sur des femmes violées, à l'hôpital de Panzi à Bukavu, en République démocratique du Congo, est l'objet d'un autre film, L'Homme qui répare les femmes : La Colère d'Hippocrate, documentaire belge réalisé par Thierry Michel et Colette Braeckman, dont la sortie est annoncée au printemps 2015.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Congo,_un_m%C3%A9decin_pour_sauver_les_femmes</t>
+          <t>Congo,_un_médecin_pour_sauver_les_femmes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Thèmes abordés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>le viol et les mutilations sexuelles utilisés à grande échelle comme arme de guerre, les conséquences médicales, psychologiques et sociales de ces actes, leur traitement, le rôle du docteur Denis Mukwege.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Congo,_un_m%C3%A9decin_pour_sauver_les_femmes</t>
+          <t>Congo,_un_médecin_pour_sauver_les_femmes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Congo,_un_m%C3%A9decin_pour_sauver_les_femmes</t>
+          <t>Congo,_un_médecin_pour_sauver_les_femmes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre :  Congo, un médecin pour sauver les femmes
 Réalisation : Angèle Diabang
@@ -576,12 +594,12 @@
 Pays de production : France - Roches Noires Productions. Coproducteur Sénégal - Karoninka
 Genre : documentaire
 Langue : français
-Durée : 52 minutes[3]
+Durée : 52 minutes
 Format : vidéo
 Distribution :
 Soutiens : Fonds francophone de production audiovisuelle du Sud (OIF / CIRTEF), Région Basse-Normandie et Maison de l'Image de Basse-Normandie ; Centre National du Cinéma et de l'Image Animée et France Télévisions
-Diffusion : France 5 en novembre 2014[4], décembre 2014[5] et janvier 2015 sur Arte, France Ô, Canal Horizons, SBS Australie[6]
-Distinctions : nommé aux Lauriers de la Radio et de la Télévision 2014[7].</t>
+Diffusion : France 5 en novembre 2014, décembre 2014 et janvier 2015 sur Arte, France Ô, Canal Horizons, SBS Australie
+Distinctions : nommé aux Lauriers de la Radio et de la Télévision 2014.</t>
         </is>
       </c>
     </row>
